--- a/Graph/Dataset/Build/Users-ADD-Games/T2_Users-ADD-Games.xlsx
+++ b/Graph/Dataset/Build/Users-ADD-Games/T2_Users-ADD-Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riccardo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52595C7E-6D60-4D5E-8F29-B4E63B5F1EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E016BE9F-4328-4AFC-BE11-26967D26B491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="46">
   <si>
     <t>adri</t>
   </si>
@@ -307,9 +307,47 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1" xr:uid="{92515BA5-BF53-4860-BA5F-8DCDF6FC919D}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -336,29 +374,6 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -373,12 +388,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{52ABA59A-357F-4A5A-BC21-21655F13CDEE}" name="Tabella3" displayName="Tabella3" ref="A1:C224" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="A1:C224" xr:uid="{948CFF88-F98C-4E76-9006-496B10205FA3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{52ABA59A-357F-4A5A-BC21-21655F13CDEE}" name="Tabella3" displayName="Tabella3" ref="A1:C223" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:C223" xr:uid="{948CFF88-F98C-4E76-9006-496B10205FA3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{54B7A153-68AE-4C52-A138-5DCACF10DFC7}" name=":START_ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{8A8F67B9-5AC2-42E5-B7CF-4B092DA206F7}" name=":TYPE" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E1CADF2F-9721-4CFF-A093-D48FFC737FD6}" name=":END_ID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{54B7A153-68AE-4C52-A138-5DCACF10DFC7}" name=":START_ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8A8F67B9-5AC2-42E5-B7CF-4B092DA206F7}" name=":TYPE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E1CADF2F-9721-4CFF-A093-D48FFC737FD6}" name=":END_ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I215" sqref="I215"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +733,7 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="1">
@@ -740,7 +755,7 @@
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="1">
@@ -806,7 +821,7 @@
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="1">
@@ -828,7 +843,7 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="1">
@@ -894,7 +909,7 @@
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="1">
@@ -916,7 +931,7 @@
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="1">
@@ -982,7 +997,7 @@
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="1">
@@ -1004,7 +1019,7 @@
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="1">
@@ -1070,7 +1085,7 @@
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="1">
@@ -1092,7 +1107,7 @@
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="1">
@@ -1158,7 +1173,7 @@
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="1">
@@ -1180,7 +1195,7 @@
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="1">
@@ -1246,7 +1261,7 @@
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="1">
@@ -1268,7 +1283,7 @@
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C56" s="1">
@@ -1334,7 +1349,7 @@
       <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C62" s="1">
@@ -1356,7 +1371,7 @@
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C64" s="1">
@@ -1422,7 +1437,7 @@
       <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C70" s="1">
@@ -1444,7 +1459,7 @@
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="1">
@@ -1510,7 +1525,7 @@
       <c r="A78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C78" s="1">
@@ -1532,7 +1547,7 @@
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C80" s="1">
@@ -1598,7 +1613,7 @@
       <c r="A86" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C86" s="1">
@@ -1620,7 +1635,7 @@
       <c r="A88" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C88" s="1">
@@ -1686,7 +1701,7 @@
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C94" s="1">
@@ -1708,7 +1723,7 @@
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C96" s="1">
@@ -1774,7 +1789,7 @@
       <c r="A102" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C102" s="1">
@@ -1796,7 +1811,7 @@
       <c r="A104" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C104" s="1">
@@ -1862,7 +1877,7 @@
       <c r="A110" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C110" s="1">
@@ -1884,7 +1899,7 @@
       <c r="A112" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C112" s="1">
@@ -1950,7 +1965,7 @@
       <c r="A118" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C118" s="1">
@@ -1972,7 +1987,7 @@
       <c r="A120" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C120" s="1">
@@ -2038,7 +2053,7 @@
       <c r="A126" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C126" s="1">
@@ -2060,7 +2075,7 @@
       <c r="A128" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C128" s="1">
@@ -2126,7 +2141,7 @@
       <c r="A134" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C134" s="1">
@@ -2148,7 +2163,7 @@
       <c r="A136" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C136" s="1">
@@ -2214,7 +2229,7 @@
       <c r="A142" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C142" s="1">
@@ -2236,7 +2251,7 @@
       <c r="A144" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C144" s="1">
@@ -2302,7 +2317,7 @@
       <c r="A150" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C150" s="1">
@@ -2324,7 +2339,7 @@
       <c r="A152" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C152" s="1">
@@ -2390,7 +2405,7 @@
       <c r="A158" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C158" s="1">
@@ -2412,7 +2427,7 @@
       <c r="A160" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C160" s="1">
@@ -2454,13 +2469,13 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C164" s="1">
-        <v>5286</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -2471,18 +2486,18 @@
         <v>42</v>
       </c>
       <c r="C165" s="1">
-        <v>3439</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C166" s="1">
-        <v>4286</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -2493,18 +2508,18 @@
         <v>42</v>
       </c>
       <c r="C167" s="1">
-        <v>4062</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C168" s="1">
-        <v>5679</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -2515,7 +2530,7 @@
         <v>42</v>
       </c>
       <c r="C169" s="1">
-        <v>3328</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -2526,18 +2541,18 @@
         <v>42</v>
       </c>
       <c r="C170" s="1">
-        <v>3498</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C171" s="1">
-        <v>4459</v>
+        <v>18080</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -2548,7 +2563,7 @@
         <v>42</v>
       </c>
       <c r="C172" s="1">
-        <v>18080</v>
+        <v>19709</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -2559,18 +2574,18 @@
         <v>42</v>
       </c>
       <c r="C173" s="1">
-        <v>19709</v>
+        <v>19710</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C174" s="1">
-        <v>19710</v>
+        <v>19103</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -2581,29 +2596,29 @@
         <v>42</v>
       </c>
       <c r="C175" s="1">
-        <v>19103</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C176" s="1">
-        <v>4200</v>
+        <v>13536</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C177" s="1">
-        <v>13536</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -2614,7 +2629,7 @@
         <v>42</v>
       </c>
       <c r="C178" s="1">
-        <v>3287</v>
+        <v>422</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -2625,7 +2640,7 @@
         <v>42</v>
       </c>
       <c r="C179" s="1">
-        <v>422</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -2636,7 +2651,7 @@
         <v>42</v>
       </c>
       <c r="C180" s="1">
-        <v>1447</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -2647,18 +2662,18 @@
         <v>42</v>
       </c>
       <c r="C181" s="1">
-        <v>3439</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B182" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C182" s="1">
-        <v>1633</v>
+        <v>422</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -2669,18 +2684,18 @@
         <v>42</v>
       </c>
       <c r="C183" s="1">
-        <v>422</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C184" s="1">
-        <v>3439</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -2691,7 +2706,7 @@
         <v>42</v>
       </c>
       <c r="C185" s="1">
-        <v>4200</v>
+        <v>13537</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -2702,7 +2717,7 @@
         <v>42</v>
       </c>
       <c r="C186" s="1">
-        <v>13537</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -2713,18 +2728,18 @@
         <v>42</v>
       </c>
       <c r="C187" s="1">
-        <v>1030</v>
+        <v>19487</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C188" s="1">
-        <v>19487</v>
+        <v>29028</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -2735,18 +2750,18 @@
         <v>42</v>
       </c>
       <c r="C189" s="1">
-        <v>29028</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C190" s="1">
-        <v>3070</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -2757,18 +2772,18 @@
         <v>42</v>
       </c>
       <c r="C191" s="1">
-        <v>3282</v>
+        <v>11973</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C192" s="1">
-        <v>11973</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -2779,18 +2794,18 @@
         <v>42</v>
       </c>
       <c r="C193" s="1">
-        <v>4828</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C194" s="1">
-        <v>3636</v>
+        <v>7689</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -2801,7 +2816,7 @@
         <v>42</v>
       </c>
       <c r="C195" s="1">
-        <v>7689</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -2812,7 +2827,7 @@
         <v>42</v>
       </c>
       <c r="C196" s="1">
-        <v>4806</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -2823,18 +2838,18 @@
         <v>42</v>
       </c>
       <c r="C197" s="1">
-        <v>3790</v>
+        <v>13910</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C198" s="1">
-        <v>13910</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -2845,29 +2860,29 @@
         <v>42</v>
       </c>
       <c r="C199" s="1">
-        <v>4427</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C200" s="1">
-        <v>3287</v>
+        <v>802</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C201" s="1">
-        <v>802</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -2878,7 +2893,7 @@
         <v>42</v>
       </c>
       <c r="C202" s="1">
-        <v>10035</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -2889,7 +2904,7 @@
         <v>42</v>
       </c>
       <c r="C203" s="1">
-        <v>4286</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -2900,7 +2915,7 @@
         <v>42</v>
       </c>
       <c r="C204" s="1">
-        <v>4062</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -2911,18 +2926,18 @@
         <v>42</v>
       </c>
       <c r="C205" s="1">
-        <v>5679</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C206" s="1">
-        <v>3498</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -2933,29 +2948,29 @@
         <v>42</v>
       </c>
       <c r="C207" s="1">
-        <v>3328</v>
+        <v>802</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C208" s="1">
-        <v>802</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C209" s="1">
-        <v>4459</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -2966,7 +2981,7 @@
         <v>42</v>
       </c>
       <c r="C210" s="1">
-        <v>32</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -2977,7 +2992,7 @@
         <v>42</v>
       </c>
       <c r="C211" s="1">
-        <v>3070</v>
+        <v>16944</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -2988,7 +3003,7 @@
         <v>42</v>
       </c>
       <c r="C212" s="1">
-        <v>16944</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -2999,18 +3014,18 @@
         <v>42</v>
       </c>
       <c r="C213" s="1">
-        <v>3328</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C214" s="1">
-        <v>4291</v>
+        <v>12020</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -3021,18 +3036,18 @@
         <v>42</v>
       </c>
       <c r="C215" s="1">
-        <v>12020</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B216" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C216" s="1">
-        <v>3636</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -3043,7 +3058,7 @@
         <v>42</v>
       </c>
       <c r="C217" s="1">
-        <v>4806</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -3054,7 +3069,7 @@
         <v>42</v>
       </c>
       <c r="C218" s="1">
-        <v>4570</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -3065,7 +3080,7 @@
         <v>42</v>
       </c>
       <c r="C219" s="1">
-        <v>1447</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -3076,7 +3091,7 @@
         <v>42</v>
       </c>
       <c r="C220" s="1">
-        <v>4427</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -3087,18 +3102,18 @@
         <v>42</v>
       </c>
       <c r="C221" s="1">
-        <v>4286</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C222" s="1">
-        <v>4062</v>
+        <v>13536</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -3109,17 +3124,6 @@
         <v>42</v>
       </c>
       <c r="C223" s="1">
-        <v>13536</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C224" s="1">
         <v>4200</v>
       </c>
     </row>
